--- a/khurana_cv/data/grants.xlsx
+++ b/khurana_cv/data/grants.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SDXC\Dropbox (University of Oregon)\Administrative\khurana_cv\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SDXC\University of Oregon Dropbox\Havi Khurana\Personal\Coding projects\khurana_cv\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65BD0A02-5CD4-4A68-BF4A-6A210AEEADE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1716B38E-C1B4-46CE-9363-44ED64FCDB56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{2F3CED88-84B5-4249-9663-01EB28D3FE1D}"/>
+    <workbookView xWindow="4020" yWindow="2835" windowWidth="21600" windowHeight="11385" xr2:uid="{2F3CED88-84B5-4249-9663-01EB28D3FE1D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>title</t>
   </si>
@@ -59,9 +59,6 @@
     <t>type</t>
   </si>
   <si>
-    <t>in-review</t>
-  </si>
-  <si>
     <t>award_num</t>
   </si>
   <si>
@@ -99,6 +96,30 @@
   </si>
   <si>
     <t>Wayne Morse Center, University of Oregon</t>
+  </si>
+  <si>
+    <t>submission_date</t>
+  </si>
+  <si>
+    <t>25/04/2024</t>
+  </si>
+  <si>
+    <t>Investigating the effects of literacy tutoring on the reading achievement of struggling readers in grades K-2</t>
+  </si>
+  <si>
+    <t>Urban Institute</t>
+  </si>
+  <si>
+    <t>30/05/2024</t>
+  </si>
+  <si>
+    <t>co_pi</t>
+  </si>
+  <si>
+    <t>Elizabeth Dhuey, David Liebowitz</t>
+  </si>
+  <si>
+    <t>Patrick Kennedy, Gina Biancarosa</t>
   </si>
 </sst>
 </file>
@@ -481,10 +502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4605E665-D6A4-C749-961B-EF6BCFDB74F3}">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -492,7 +513,7 @@
     <col min="2" max="2" width="86" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -503,153 +524,172 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" t="s">
         <v>10</v>
       </c>
-      <c r="I1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="O1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
       <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>18</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="4">
+      <c r="H2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="4"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="6">
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="7">
         <v>45566</v>
       </c>
-      <c r="H2" s="5">
-        <v>46113</v>
-      </c>
-      <c r="I2" s="6">
-        <v>65000</v>
-      </c>
-      <c r="J2">
-        <v>33</v>
-      </c>
-      <c r="L2" t="b">
-        <v>0</v>
-      </c>
-      <c r="N2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3" t="s">
+      <c r="I3" s="7"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="8">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="8">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="8"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G4" s="3"/>
+      <c r="H4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="8"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B5" s="9"/>
       <c r="C5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F5" s="3"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B6" s="9"/>
       <c r="C6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F6" s="3"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="4"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B7" s="9"/>
       <c r="C7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="4"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F7" s="3"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="4"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B8" s="9"/>
       <c r="C8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="4"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F8" s="3"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="4"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B9" s="9"/>
       <c r="C9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F9" s="3"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B10" s="9"/>
       <c r="C10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F10" s="3"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B11" s="9"/>
       <c r="C11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
+      <c r="F11" s="3"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N11">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P11">
     <sortCondition ref="A2:A11"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/khurana_cv/data/grants.xlsx
+++ b/khurana_cv/data/grants.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SDXC\University of Oregon Dropbox\Havi Khurana\Personal\Coding projects\khurana_cv\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1716B38E-C1B4-46CE-9363-44ED64FCDB56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39F5BCFC-E808-48F8-B839-C90A7472D412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4020" yWindow="2835" windowWidth="21600" windowHeight="11385" xr2:uid="{2F3CED88-84B5-4249-9663-01EB28D3FE1D}"/>
+    <workbookView xWindow="5025" yWindow="885" windowWidth="21600" windowHeight="11385" xr2:uid="{2F3CED88-84B5-4249-9663-01EB28D3FE1D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/khurana_cv/data/grants.xlsx
+++ b/khurana_cv/data/grants.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SDXC\University of Oregon Dropbox\Havi Khurana\Personal\Coding projects\khurana_cv\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39F5BCFC-E808-48F8-B839-C90A7472D412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7FEE675-7BE0-4976-B750-754164B5A6F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5025" yWindow="885" windowWidth="21600" windowHeight="11385" xr2:uid="{2F3CED88-84B5-4249-9663-01EB28D3FE1D}"/>
+    <workbookView xWindow="975" yWindow="1875" windowWidth="21600" windowHeight="11385" xr2:uid="{2F3CED88-84B5-4249-9663-01EB28D3FE1D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
   <si>
     <t>title</t>
   </si>
@@ -120,6 +120,9 @@
   </si>
   <si>
     <t>Patrick Kennedy, Gina Biancarosa</t>
+  </si>
+  <si>
+    <t>short_cv</t>
   </si>
 </sst>
 </file>
@@ -502,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4605E665-D6A4-C749-961B-EF6BCFDB74F3}">
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -513,7 +516,7 @@
     <col min="2" max="2" width="86" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -562,8 +565,11 @@
       <c r="P1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -589,7 +595,7 @@
         <v>65000</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -614,7 +620,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -639,49 +645,49 @@
       <c r="J4" s="4"/>
       <c r="K4" s="8"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B5" s="9"/>
       <c r="C5" s="3"/>
       <c r="F5" s="3"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B6" s="9"/>
       <c r="C6" s="3"/>
       <c r="F6" s="3"/>
       <c r="I6" s="1"/>
       <c r="J6" s="4"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B7" s="9"/>
       <c r="C7" s="3"/>
       <c r="F7" s="3"/>
       <c r="I7" s="1"/>
       <c r="J7" s="4"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B8" s="9"/>
       <c r="C8" s="3"/>
       <c r="F8" s="3"/>
       <c r="I8" s="1"/>
       <c r="J8" s="4"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B9" s="9"/>
       <c r="C9" s="3"/>
       <c r="F9" s="3"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B10" s="9"/>
       <c r="C10" s="3"/>
       <c r="F10" s="3"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B11" s="9"/>
       <c r="C11" s="3"/>
       <c r="F11" s="3"/>

--- a/khurana_cv/data/grants.xlsx
+++ b/khurana_cv/data/grants.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SDXC\University of Oregon Dropbox\Havi Khurana\Personal\Coding projects\khurana_cv\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\havis\University of Oregon Dropbox\Havi Khurana\Personal\Coding projects\khurana_cv\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7FEE675-7BE0-4976-B750-754164B5A6F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8B43A8B-FC87-4D06-AAD1-ACBB3AB372E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="975" yWindow="1875" windowWidth="21600" windowHeight="11385" xr2:uid="{2F3CED88-84B5-4249-9663-01EB28D3FE1D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{2F3CED88-84B5-4249-9663-01EB28D3FE1D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
   <si>
     <t>title</t>
   </si>
@@ -123,6 +123,9 @@
   </si>
   <si>
     <t>short_cv</t>
+  </si>
+  <si>
+    <t>year</t>
   </si>
 </sst>
 </file>
@@ -178,7 +181,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
       <protection locked="0"/>
@@ -191,6 +194,7 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -505,18 +509,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4605E665-D6A4-C749-961B-EF6BCFDB74F3}">
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="86" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -542,34 +546,37 @@
         <v>20</v>
       </c>
       <c r="I1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>5</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>10</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>11</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -586,16 +593,19 @@
       <c r="F2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="6">
+      <c r="I2" s="3">
+        <v>2024</v>
+      </c>
+      <c r="J2" s="4"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="6">
         <v>65000</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -614,13 +624,16 @@
       <c r="H3" s="7">
         <v>45566</v>
       </c>
-      <c r="I3" s="7"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="8">
+      <c r="I3" s="10">
+        <v>2024</v>
+      </c>
+      <c r="J3" s="7"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="8">
         <v>4000</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -638,64 +651,67 @@
         <v>4</v>
       </c>
       <c r="G4" s="3"/>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="4"/>
+      <c r="I4" s="3">
+        <v>2024</v>
+      </c>
       <c r="J4" s="4"/>
-      <c r="K4" s="8"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K4" s="4"/>
+      <c r="L4" s="8"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B5" s="9"/>
       <c r="C5" s="3"/>
       <c r="F5" s="3"/>
-      <c r="I5" s="1"/>
       <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B6" s="9"/>
       <c r="C6" s="3"/>
       <c r="F6" s="3"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="4"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="J6" s="1"/>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B7" s="9"/>
       <c r="C7" s="3"/>
       <c r="F7" s="3"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="4"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="J7" s="1"/>
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B8" s="9"/>
       <c r="C8" s="3"/>
       <c r="F8" s="3"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="4"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="J8" s="1"/>
+      <c r="K8" s="4"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B9" s="9"/>
       <c r="C9" s="3"/>
       <c r="F9" s="3"/>
-      <c r="I9" s="1"/>
       <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B10" s="9"/>
       <c r="C10" s="3"/>
       <c r="F10" s="3"/>
-      <c r="I10" s="1"/>
       <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B11" s="9"/>
       <c r="C11" s="3"/>
       <c r="F11" s="3"/>
-      <c r="I11" s="2"/>
       <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P11">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q11">
     <sortCondition ref="A2:A11"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
